--- a/data/pca/factorExposure/factorExposure_2018-04-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.00939352361608462</v>
+        <v>0.01936166847093122</v>
       </c>
       <c r="C2">
-        <v>0.02431116490658421</v>
+        <v>-0.0182392788620321</v>
       </c>
       <c r="D2">
-        <v>-0.03132252342540236</v>
+        <v>0.0300670997293859</v>
       </c>
       <c r="E2">
-        <v>-0.01621821028794478</v>
+        <v>-0.01833966906979802</v>
       </c>
       <c r="F2">
-        <v>0.09751929695645059</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.006735099831697125</v>
+      </c>
+      <c r="G2">
+        <v>-0.0412734509271226</v>
+      </c>
+      <c r="H2">
+        <v>0.04351289629766621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08667682703594519</v>
+        <v>0.07535900588687842</v>
       </c>
       <c r="C3">
-        <v>0.05080631732350529</v>
+        <v>0.01063914848783998</v>
       </c>
       <c r="D3">
-        <v>-0.04231941862636152</v>
+        <v>0.07391609430016649</v>
       </c>
       <c r="E3">
-        <v>0.0332948891950396</v>
+        <v>-0.01226122495717935</v>
       </c>
       <c r="F3">
-        <v>0.3552344831703233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.00473660322530496</v>
+      </c>
+      <c r="G3">
+        <v>-0.1644408083779203</v>
+      </c>
+      <c r="H3">
+        <v>0.126192478866762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04644084714776444</v>
+        <v>0.04036915199162931</v>
       </c>
       <c r="C4">
-        <v>0.01271691511535929</v>
+        <v>-0.006178759529460847</v>
       </c>
       <c r="D4">
-        <v>-0.0240748161428658</v>
+        <v>0.06396429095539445</v>
       </c>
       <c r="E4">
-        <v>-0.04615024110166863</v>
+        <v>0.0184479447279021</v>
       </c>
       <c r="F4">
-        <v>0.0614157816092234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.04322294319940798</v>
+      </c>
+      <c r="G4">
+        <v>-0.04061727601675812</v>
+      </c>
+      <c r="H4">
+        <v>0.05508671160643477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03398739698085029</v>
+        <v>0.02491990093299158</v>
       </c>
       <c r="C6">
-        <v>0.01306163457102676</v>
+        <v>-0.002265945390989458</v>
       </c>
       <c r="D6">
-        <v>-0.02168870452054864</v>
+        <v>0.06290122700257393</v>
       </c>
       <c r="E6">
-        <v>-0.02560341111626637</v>
+        <v>0.004628133982515115</v>
       </c>
       <c r="F6">
-        <v>0.01354728091846409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03086724537506756</v>
+      </c>
+      <c r="G6">
+        <v>-0.01433672987940152</v>
+      </c>
+      <c r="H6">
+        <v>0.06183121955796924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03821532923328448</v>
+        <v>0.01271340948307259</v>
       </c>
       <c r="C7">
-        <v>-0.02920634923042802</v>
+        <v>-0.004239991528474581</v>
       </c>
       <c r="D7">
-        <v>-0.02971618046920066</v>
+        <v>0.03628149009663255</v>
       </c>
       <c r="E7">
-        <v>-0.03109411561229274</v>
+        <v>0.04416045299636654</v>
       </c>
       <c r="F7">
-        <v>0.0407086057750213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.001053643455492276</v>
+      </c>
+      <c r="G7">
+        <v>-0.02278870311210218</v>
+      </c>
+      <c r="H7">
+        <v>0.03809818886491605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01874286267410419</v>
+        <v>0.003508508006751993</v>
       </c>
       <c r="C8">
-        <v>0.004346031374346035</v>
+        <v>0.001605899013167095</v>
       </c>
       <c r="D8">
-        <v>-0.03550802135439623</v>
+        <v>0.0160730480533626</v>
       </c>
       <c r="E8">
-        <v>-0.0357250223331211</v>
+        <v>0.008578951084042177</v>
       </c>
       <c r="F8">
-        <v>0.06874353969545706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01624117126430211</v>
+      </c>
+      <c r="G8">
+        <v>-0.03982264860858663</v>
+      </c>
+      <c r="H8">
+        <v>0.03528635176464281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03445925889378085</v>
+        <v>0.03116035470967724</v>
       </c>
       <c r="C9">
-        <v>0.009032860925254651</v>
+        <v>-0.002485600482775695</v>
       </c>
       <c r="D9">
-        <v>-0.0310452773209928</v>
+        <v>0.04758968812799719</v>
       </c>
       <c r="E9">
-        <v>-0.03491642574509397</v>
+        <v>0.007263951741794344</v>
       </c>
       <c r="F9">
-        <v>0.07866833267316291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01961075016617548</v>
+      </c>
+      <c r="G9">
+        <v>-0.04550652190014721</v>
+      </c>
+      <c r="H9">
+        <v>0.0543787577639219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03835687717050613</v>
+        <v>0.1252347202468362</v>
       </c>
       <c r="C10">
-        <v>0.004127405091680122</v>
+        <v>0.007319570139943955</v>
       </c>
       <c r="D10">
-        <v>0.1169574252026728</v>
+        <v>-0.1578251489422006</v>
       </c>
       <c r="E10">
-        <v>0.1038013282298827</v>
+        <v>0.000194823140367998</v>
       </c>
       <c r="F10">
-        <v>0.06441411143333182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0348155710267857</v>
+      </c>
+      <c r="G10">
+        <v>-0.03273776951014807</v>
+      </c>
+      <c r="H10">
+        <v>-0.0008911228125198269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02886917313009323</v>
+        <v>0.01758764794848345</v>
       </c>
       <c r="C11">
-        <v>0.02014233981846423</v>
+        <v>0.009011362753381394</v>
       </c>
       <c r="D11">
-        <v>-0.03092219626054534</v>
+        <v>0.05045375542554206</v>
       </c>
       <c r="E11">
-        <v>-0.03149721636199605</v>
+        <v>-0.002554109709996001</v>
       </c>
       <c r="F11">
-        <v>0.03290792061141595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01198630316552873</v>
+      </c>
+      <c r="G11">
+        <v>-0.02565236097086745</v>
+      </c>
+      <c r="H11">
+        <v>0.04899443091674007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04006884498897084</v>
+        <v>0.02150535727917749</v>
       </c>
       <c r="C12">
-        <v>0.01876134423957306</v>
+        <v>0.005215024015711642</v>
       </c>
       <c r="D12">
-        <v>-0.02293996305529212</v>
+        <v>0.04887085180905561</v>
       </c>
       <c r="E12">
-        <v>-0.03795427593645095</v>
+        <v>0.01047177032122463</v>
       </c>
       <c r="F12">
-        <v>0.008504939349656612</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01348361668367668</v>
+      </c>
+      <c r="G12">
+        <v>-0.00643639241361969</v>
+      </c>
+      <c r="H12">
+        <v>0.02119950136035402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01016230662594655</v>
+        <v>0.02480245537959531</v>
       </c>
       <c r="C13">
-        <v>0.02094388805375929</v>
+        <v>-0.01449551597012773</v>
       </c>
       <c r="D13">
-        <v>-0.01276165834802888</v>
+        <v>0.0246208889781082</v>
       </c>
       <c r="E13">
-        <v>-0.01660957591017181</v>
+        <v>-0.01277792391700896</v>
       </c>
       <c r="F13">
-        <v>0.07807876221211575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02308422716392735</v>
+      </c>
+      <c r="G13">
+        <v>-0.0606092535679234</v>
+      </c>
+      <c r="H13">
+        <v>0.07623914530408475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02176531260070863</v>
+        <v>0.0146593443005576</v>
       </c>
       <c r="C14">
-        <v>-0.00198548627405617</v>
+        <v>-0.001788086991128596</v>
       </c>
       <c r="D14">
-        <v>-0.0177830623560286</v>
+        <v>0.01695671100329641</v>
       </c>
       <c r="E14">
-        <v>-0.03037806170712958</v>
+        <v>0.01487391080908241</v>
       </c>
       <c r="F14">
-        <v>0.05039243101444191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01264486049070924</v>
+      </c>
+      <c r="G14">
+        <v>-0.04017715244012229</v>
+      </c>
+      <c r="H14">
+        <v>0.0114845851392596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02897250587782458</v>
+        <v>0.02013368468567887</v>
       </c>
       <c r="C16">
-        <v>0.01902843721502246</v>
+        <v>0.008717605891803624</v>
       </c>
       <c r="D16">
-        <v>-0.0338045334430955</v>
+        <v>0.04163639835050181</v>
       </c>
       <c r="E16">
-        <v>-0.03613520677675014</v>
+        <v>0.002043696348481524</v>
       </c>
       <c r="F16">
-        <v>0.03274002915373088</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01423684035669302</v>
+      </c>
+      <c r="G16">
+        <v>-0.02079327554018606</v>
+      </c>
+      <c r="H16">
+        <v>0.03698683401702738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03137491278445155</v>
+        <v>0.02236340169924417</v>
       </c>
       <c r="C19">
-        <v>0.01908815240513912</v>
+        <v>-0.002319873042107413</v>
       </c>
       <c r="D19">
-        <v>-0.02955932110377533</v>
+        <v>0.04590301617966819</v>
       </c>
       <c r="E19">
-        <v>-0.03720414648019272</v>
+        <v>0.006906946037713381</v>
       </c>
       <c r="F19">
-        <v>0.08506896194138433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02540802032528637</v>
+      </c>
+      <c r="G19">
+        <v>-0.05720129833295364</v>
+      </c>
+      <c r="H19">
+        <v>0.05721041403717821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0009227988466028172</v>
+        <v>0.00721502150272904</v>
       </c>
       <c r="C20">
-        <v>-0.005345462634717714</v>
+        <v>-0.006181297887128534</v>
       </c>
       <c r="D20">
-        <v>-0.01276616493403354</v>
+        <v>0.02300005937878519</v>
       </c>
       <c r="E20">
-        <v>-0.02270557370333584</v>
+        <v>0.003267118922077524</v>
       </c>
       <c r="F20">
-        <v>0.06592810770963899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01387918788779612</v>
+      </c>
+      <c r="G20">
+        <v>-0.0546362852663162</v>
+      </c>
+      <c r="H20">
+        <v>0.02717441023521657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01548777461664333</v>
+        <v>0.01259874382863495</v>
       </c>
       <c r="C21">
-        <v>-0.0153899088422544</v>
+        <v>-0.007583574561430915</v>
       </c>
       <c r="D21">
-        <v>-0.03711476705266374</v>
+        <v>0.02704662331893221</v>
       </c>
       <c r="E21">
-        <v>-0.01954321464937359</v>
+        <v>0.01702244352047633</v>
       </c>
       <c r="F21">
-        <v>0.02952208376663538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.005792385619986621</v>
+      </c>
+      <c r="G21">
+        <v>-0.04738527104438342</v>
+      </c>
+      <c r="H21">
+        <v>0.04102640974909446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02679290136314503</v>
+        <v>0.01536012164274375</v>
       </c>
       <c r="C24">
-        <v>0.01742648210900725</v>
+        <v>0.003354948231144509</v>
       </c>
       <c r="D24">
-        <v>-0.01580755868993426</v>
+        <v>0.04406953069876794</v>
       </c>
       <c r="E24">
-        <v>-0.02475828466693377</v>
+        <v>0.0001874254707239908</v>
       </c>
       <c r="F24">
-        <v>0.03752082891541407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01037322029407731</v>
+      </c>
+      <c r="G24">
+        <v>-0.01623601241474153</v>
+      </c>
+      <c r="H24">
+        <v>0.04608875194779273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03062731588608688</v>
+        <v>0.0273506488598925</v>
       </c>
       <c r="C25">
-        <v>0.01628436132312717</v>
+        <v>0.0008806336584258103</v>
       </c>
       <c r="D25">
-        <v>-0.03069674655523086</v>
+        <v>0.04714843092591334</v>
       </c>
       <c r="E25">
-        <v>-0.02792940928625657</v>
+        <v>0.005564122381438969</v>
       </c>
       <c r="F25">
-        <v>0.03790270148982396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.0179595288751004</v>
+      </c>
+      <c r="G25">
+        <v>-0.02054467386193928</v>
+      </c>
+      <c r="H25">
+        <v>0.04342444793535388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01823786167045456</v>
+        <v>0.0146805794411386</v>
       </c>
       <c r="C26">
-        <v>0.01141537983569356</v>
+        <v>-0.01940099876914892</v>
       </c>
       <c r="D26">
-        <v>-0.02397101545429745</v>
+        <v>0.0100989765432596</v>
       </c>
       <c r="E26">
-        <v>-0.004873658583127135</v>
+        <v>0.0003946174744323256</v>
       </c>
       <c r="F26">
-        <v>0.05713936164397693</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.001754012057427491</v>
+      </c>
+      <c r="G26">
+        <v>-0.02898899643679924</v>
+      </c>
+      <c r="H26">
+        <v>0.02424592121095532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.04271379000349391</v>
+        <v>0.01723488563190511</v>
       </c>
       <c r="C27">
-        <v>0.02043950133979096</v>
+        <v>0.005918017967602838</v>
       </c>
       <c r="D27">
-        <v>0.001930269541363053</v>
+        <v>0.01561009158236043</v>
       </c>
       <c r="E27">
-        <v>-0.03502324336692076</v>
+        <v>0.006284597316165107</v>
       </c>
       <c r="F27">
-        <v>0.02070843277122468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.008921425567571648</v>
+      </c>
+      <c r="G27">
+        <v>-0.007021614854717643</v>
+      </c>
+      <c r="H27">
+        <v>-0.0007187243528278245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06537758676935415</v>
+        <v>0.1730414122345729</v>
       </c>
       <c r="C28">
-        <v>0.007059308526977217</v>
+        <v>-0.001709003707061982</v>
       </c>
       <c r="D28">
-        <v>0.1527887101850179</v>
+        <v>-0.2015685088480975</v>
       </c>
       <c r="E28">
-        <v>0.1415493555704475</v>
+        <v>0.01203791079797385</v>
       </c>
       <c r="F28">
-        <v>0.05872451587424598</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03364861715452704</v>
+      </c>
+      <c r="G28">
+        <v>-0.0179543791660436</v>
+      </c>
+      <c r="H28">
+        <v>-0.008191012519923005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02379541083872963</v>
+        <v>0.01950220701251038</v>
       </c>
       <c r="C29">
-        <v>-0.001090845952621419</v>
+        <v>-0.0003664873609444209</v>
       </c>
       <c r="D29">
-        <v>-0.02111290949232842</v>
+        <v>0.01741344214732516</v>
       </c>
       <c r="E29">
-        <v>-0.03346402941327415</v>
+        <v>0.01451024791358077</v>
       </c>
       <c r="F29">
-        <v>0.0476466830515906</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01347267971495949</v>
+      </c>
+      <c r="G29">
+        <v>-0.03959013089048469</v>
+      </c>
+      <c r="H29">
+        <v>0.006524163631022665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.05230384772417219</v>
+        <v>0.04071239130905914</v>
       </c>
       <c r="C30">
-        <v>0.07136610140166337</v>
+        <v>-0.005341060090970064</v>
       </c>
       <c r="D30">
-        <v>-0.04199424248427138</v>
+        <v>0.09588535746698872</v>
       </c>
       <c r="E30">
-        <v>-0.05864767353811221</v>
+        <v>-0.03150852767613172</v>
       </c>
       <c r="F30">
-        <v>0.08819606910438361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04691822935063642</v>
+      </c>
+      <c r="G30">
+        <v>-0.06047626473063</v>
+      </c>
+      <c r="H30">
+        <v>0.07042896305626671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05521425070693455</v>
+        <v>0.04746742200907999</v>
       </c>
       <c r="C31">
-        <v>0.03743812951105998</v>
+        <v>0.008364589912035095</v>
       </c>
       <c r="D31">
-        <v>-0.01564915575761284</v>
+        <v>0.03078888477153518</v>
       </c>
       <c r="E31">
-        <v>-0.02521673108396869</v>
+        <v>-0.002997796945477569</v>
       </c>
       <c r="F31">
-        <v>0.0315643786584823</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.004365234934745784</v>
+      </c>
+      <c r="G31">
+        <v>-0.0183024529194262</v>
+      </c>
+      <c r="H31">
+        <v>0.00463680897686738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02490903351582995</v>
+        <v>0.01355361429293918</v>
       </c>
       <c r="C32">
-        <v>-0.0114485417989863</v>
+        <v>0.01311991643294412</v>
       </c>
       <c r="D32">
-        <v>-0.05058523769204001</v>
+        <v>0.01091139441835685</v>
       </c>
       <c r="E32">
-        <v>-0.05484430000932244</v>
+        <v>0.02976526052207038</v>
       </c>
       <c r="F32">
-        <v>0.05018835494310565</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03576350339941665</v>
+      </c>
+      <c r="G32">
+        <v>-0.03607035038078832</v>
+      </c>
+      <c r="H32">
+        <v>0.05066622429863495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03234909098779155</v>
+        <v>0.02829700235148721</v>
       </c>
       <c r="C33">
-        <v>0.04404832583790855</v>
+        <v>-0.001410297760497082</v>
       </c>
       <c r="D33">
-        <v>-0.05103064227617064</v>
+        <v>0.04723668403255679</v>
       </c>
       <c r="E33">
-        <v>-0.02168134163576249</v>
+        <v>-0.02157043614759305</v>
       </c>
       <c r="F33">
-        <v>0.06055301191594353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.001126681881868308</v>
+      </c>
+      <c r="G33">
+        <v>-0.04776858388927055</v>
+      </c>
+      <c r="H33">
+        <v>0.05282940096296486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03350647361269458</v>
+        <v>0.02556164942944849</v>
       </c>
       <c r="C34">
-        <v>0.01212072880844358</v>
+        <v>0.01695617985835735</v>
       </c>
       <c r="D34">
-        <v>-0.02842116473797198</v>
+        <v>0.04516319718629223</v>
       </c>
       <c r="E34">
-        <v>-0.04346173706352328</v>
+        <v>0.01241855797756487</v>
       </c>
       <c r="F34">
-        <v>0.04037554506684115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01748778307704684</v>
+      </c>
+      <c r="G34">
+        <v>-0.01237352718681817</v>
+      </c>
+      <c r="H34">
+        <v>0.0372466490849242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01730219424635924</v>
+        <v>0.01687866493452798</v>
       </c>
       <c r="C36">
-        <v>-0.0006411865228787823</v>
+        <v>-0.006803248829839795</v>
       </c>
       <c r="D36">
-        <v>-0.01551825336581295</v>
+        <v>0.006708793554369621</v>
       </c>
       <c r="E36">
-        <v>-0.01663398750057794</v>
+        <v>0.008439312258764077</v>
       </c>
       <c r="F36">
-        <v>0.02700439813205215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.001577589135839139</v>
+      </c>
+      <c r="G36">
+        <v>-0.02040174894973279</v>
+      </c>
+      <c r="H36">
+        <v>0.0176551187668063</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.008233102156993244</v>
+        <v>0.02716683900647373</v>
       </c>
       <c r="C38">
-        <v>0.006042168736824189</v>
+        <v>0.0151672840887768</v>
       </c>
       <c r="D38">
-        <v>-0.006979447758434528</v>
+        <v>0.01632215972548732</v>
       </c>
       <c r="E38">
-        <v>0.02080552228688204</v>
+        <v>-0.0008703745470547313</v>
       </c>
       <c r="F38">
-        <v>0.04164752820866625</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01000049663382614</v>
+      </c>
+      <c r="G38">
+        <v>-0.02426406211261833</v>
+      </c>
+      <c r="H38">
+        <v>0.04126183584165926</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02705843755233694</v>
+        <v>0.01085006012060515</v>
       </c>
       <c r="C39">
-        <v>0.01977767614296732</v>
+        <v>0.004364731185159184</v>
       </c>
       <c r="D39">
-        <v>-0.05104900650915649</v>
+        <v>0.08970427625460055</v>
       </c>
       <c r="E39">
-        <v>-0.04186726963928853</v>
+        <v>-0.008450847909534485</v>
       </c>
       <c r="F39">
-        <v>0.04849403893435088</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01760405229600002</v>
+      </c>
+      <c r="G39">
+        <v>-0.03823641310669035</v>
+      </c>
+      <c r="H39">
+        <v>0.07756222639299859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01982313032547047</v>
+        <v>0.0270279735109675</v>
       </c>
       <c r="C40">
-        <v>0.04839843321675616</v>
+        <v>-0.0007881119160743481</v>
       </c>
       <c r="D40">
-        <v>-0.01255218960703968</v>
+        <v>0.03570321213194819</v>
       </c>
       <c r="E40">
-        <v>-0.03834998806346325</v>
+        <v>-0.02371347526083524</v>
       </c>
       <c r="F40">
-        <v>0.05558869140145386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03557543123059208</v>
+      </c>
+      <c r="G40">
+        <v>-0.02082067171565359</v>
+      </c>
+      <c r="H40">
+        <v>0.06592353516273786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.005020501669242068</v>
+        <v>0.01400039830593291</v>
       </c>
       <c r="C41">
-        <v>-8.488225044837487e-05</v>
+        <v>-0.002386111045380967</v>
       </c>
       <c r="D41">
-        <v>-0.01427351894366393</v>
+        <v>-0.01177795930905929</v>
       </c>
       <c r="E41">
-        <v>0.003454811780561474</v>
+        <v>0.003094716842704258</v>
       </c>
       <c r="F41">
-        <v>0.006082846756104294</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.005726215431491699</v>
+      </c>
+      <c r="G41">
+        <v>0.0003407962813584676</v>
+      </c>
+      <c r="H41">
+        <v>0.0005239424107387594</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.231856294656331</v>
+        <v>0.1362249173697034</v>
       </c>
       <c r="C42">
-        <v>0.214286641894561</v>
+        <v>-0.08252608561425494</v>
       </c>
       <c r="D42">
-        <v>-0.5222617153596364</v>
+        <v>0.2357142946378851</v>
       </c>
       <c r="E42">
-        <v>0.7038775071743869</v>
+        <v>-0.2472796585255926</v>
       </c>
       <c r="F42">
-        <v>-0.2869419688201169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8889774701225992</v>
+      </c>
+      <c r="G42">
+        <v>0.2166356774729066</v>
+      </c>
+      <c r="H42">
+        <v>0.01898366834670945</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003673037523386327</v>
+        <v>0.01501792993952029</v>
       </c>
       <c r="C43">
-        <v>0.003678061651673433</v>
+        <v>-0.002653379033692848</v>
       </c>
       <c r="D43">
-        <v>-0.0143183163458426</v>
+        <v>-0.008451110365272052</v>
       </c>
       <c r="E43">
-        <v>-0.0007400469678149203</v>
+        <v>-0.0008527504664100566</v>
       </c>
       <c r="F43">
-        <v>0.02470949378413547</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003483975767030122</v>
+      </c>
+      <c r="G43">
+        <v>-0.0005230435792175833</v>
+      </c>
+      <c r="H43">
+        <v>0.007961402436117338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02391074692532382</v>
+        <v>0.01585125196401682</v>
       </c>
       <c r="C44">
-        <v>-0.001012268702632226</v>
+        <v>0.004319114242287475</v>
       </c>
       <c r="D44">
-        <v>-0.03863091081719527</v>
+        <v>0.04341315649037867</v>
       </c>
       <c r="E44">
-        <v>-0.01405114922310396</v>
+        <v>0.01086376196963925</v>
       </c>
       <c r="F44">
-        <v>0.0991320710867872</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.0002635045701953753</v>
+      </c>
+      <c r="G44">
+        <v>-0.04290811906760916</v>
+      </c>
+      <c r="H44">
+        <v>0.06291760257864795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02193978811285713</v>
+        <v>0.0117055145131171</v>
       </c>
       <c r="C46">
-        <v>0.011199118260403</v>
+        <v>-0.006159557665461614</v>
       </c>
       <c r="D46">
-        <v>-0.04046935130948429</v>
+        <v>0.01606229248914173</v>
       </c>
       <c r="E46">
-        <v>-0.03176190850266816</v>
+        <v>0.002210937050701035</v>
       </c>
       <c r="F46">
-        <v>0.05869397160562053</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.007768959412372283</v>
+      </c>
+      <c r="G46">
+        <v>-0.04347425178503248</v>
+      </c>
+      <c r="H46">
+        <v>0.00836543263257147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0828345868098007</v>
+        <v>0.06660100385981252</v>
       </c>
       <c r="C47">
-        <v>0.04806380076925817</v>
+        <v>0.02284755256630699</v>
       </c>
       <c r="D47">
-        <v>-0.0119496529888925</v>
+        <v>0.05736581441191434</v>
       </c>
       <c r="E47">
-        <v>-0.03682181490748954</v>
+        <v>0.005800414802616251</v>
       </c>
       <c r="F47">
-        <v>0.008768059182583478</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01109704271687812</v>
+      </c>
+      <c r="G47">
+        <v>0.0109524334959444</v>
+      </c>
+      <c r="H47">
+        <v>-0.02093559381787771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01895681133996733</v>
+        <v>0.01860486138191871</v>
       </c>
       <c r="C48">
-        <v>0.01043556213355432</v>
+        <v>0.004212235037759441</v>
       </c>
       <c r="D48">
-        <v>-0.02060648490792013</v>
+        <v>0.01553480267251327</v>
       </c>
       <c r="E48">
-        <v>-0.01878966751650827</v>
+        <v>0.001700040557433053</v>
       </c>
       <c r="F48">
-        <v>0.0331284171864225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.006499007635768945</v>
+      </c>
+      <c r="G48">
+        <v>-0.02163154046843998</v>
+      </c>
+      <c r="H48">
+        <v>0.01906461945496173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08544262943349497</v>
+        <v>0.06844160516287072</v>
       </c>
       <c r="C50">
-        <v>0.03262766352724884</v>
+        <v>0.02083966785215677</v>
       </c>
       <c r="D50">
-        <v>-0.03128573050448063</v>
+        <v>0.05549096710305002</v>
       </c>
       <c r="E50">
-        <v>-0.03416647121567738</v>
+        <v>0.01613707093141997</v>
       </c>
       <c r="F50">
-        <v>0.02092715643261151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.005120774704506648</v>
+      </c>
+      <c r="G50">
+        <v>-0.004546562890432539</v>
+      </c>
+      <c r="H50">
+        <v>-0.01234975532102973</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01989115559461426</v>
+        <v>0.01646095373784457</v>
       </c>
       <c r="C51">
-        <v>0.005422347719351901</v>
+        <v>-0.00203726428583064</v>
       </c>
       <c r="D51">
-        <v>1.618030687591648e-05</v>
+        <v>0.01144098040710077</v>
       </c>
       <c r="E51">
-        <v>0.001567451957461052</v>
+        <v>0.007575814273167321</v>
       </c>
       <c r="F51">
-        <v>0.08373432865644735</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.00266694739577824</v>
+      </c>
+      <c r="G51">
+        <v>-0.03753199903611991</v>
+      </c>
+      <c r="H51">
+        <v>0.04450822253485053</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09151889140333251</v>
+        <v>0.08165349658512656</v>
       </c>
       <c r="C53">
-        <v>0.05109179053529563</v>
+        <v>0.02919489382108246</v>
       </c>
       <c r="D53">
-        <v>-0.01653952551813192</v>
+        <v>0.09448100749841931</v>
       </c>
       <c r="E53">
-        <v>-0.05027296699643562</v>
+        <v>0.01055563007115749</v>
       </c>
       <c r="F53">
-        <v>-0.0376642198933723</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02688872539041881</v>
+      </c>
+      <c r="G53">
+        <v>0.03392593402225949</v>
+      </c>
+      <c r="H53">
+        <v>-0.02780464153307223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02152779423223714</v>
+        <v>0.02817675905930311</v>
       </c>
       <c r="C54">
-        <v>3.998441655917947e-05</v>
+        <v>0.007539596569688756</v>
       </c>
       <c r="D54">
-        <v>-0.01181571930416983</v>
+        <v>-0.008705074180632712</v>
       </c>
       <c r="E54">
-        <v>-0.0242744223354299</v>
+        <v>0.007921141711479904</v>
       </c>
       <c r="F54">
-        <v>0.0329365134394693</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.003352894440704024</v>
+      </c>
+      <c r="G54">
+        <v>-0.03724477049084907</v>
+      </c>
+      <c r="H54">
+        <v>0.00392984674968833</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08883548492535089</v>
+        <v>0.06487186868980079</v>
       </c>
       <c r="C55">
-        <v>0.04353374638873394</v>
+        <v>0.02595810299188587</v>
       </c>
       <c r="D55">
-        <v>-0.02950695011164706</v>
+        <v>0.08938603560253443</v>
       </c>
       <c r="E55">
-        <v>-0.05270997343797501</v>
+        <v>0.01205787330249035</v>
       </c>
       <c r="F55">
-        <v>-0.03908190626525596</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01938830508210935</v>
+      </c>
+      <c r="G55">
+        <v>0.01324393271787999</v>
+      </c>
+      <c r="H55">
+        <v>-0.03973289808019666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1295057730646895</v>
+        <v>0.1111452901102646</v>
       </c>
       <c r="C56">
-        <v>0.07576764276213123</v>
+        <v>0.0442308990693013</v>
       </c>
       <c r="D56">
-        <v>0.01314646350798148</v>
+        <v>0.1168342698289537</v>
       </c>
       <c r="E56">
-        <v>-0.08566586467114894</v>
+        <v>0.01157307272195653</v>
       </c>
       <c r="F56">
-        <v>-0.07214692595513746</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05066843691407844</v>
+      </c>
+      <c r="G56">
+        <v>0.06935925789970605</v>
+      </c>
+      <c r="H56">
+        <v>-0.06018089083117498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03927084292909123</v>
+        <v>0.03124603520151292</v>
       </c>
       <c r="C57">
-        <v>0.03457030128558774</v>
+        <v>-0.01433515806819963</v>
       </c>
       <c r="D57">
-        <v>-0.02307612919482571</v>
+        <v>0.03648061705477282</v>
       </c>
       <c r="E57">
-        <v>0.002799188421150598</v>
+        <v>-0.0109058519312397</v>
       </c>
       <c r="F57">
-        <v>0.04912376220940494</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.004205067342315873</v>
+      </c>
+      <c r="G57">
+        <v>-0.06958520822058194</v>
+      </c>
+      <c r="H57">
+        <v>0.04956531616240298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1523476328211349</v>
+        <v>0.1341255980038326</v>
       </c>
       <c r="C58">
-        <v>0.2009533140052648</v>
+        <v>0.03641470050634713</v>
       </c>
       <c r="D58">
-        <v>-0.1776290128956993</v>
+        <v>0.1650868354006832</v>
       </c>
       <c r="E58">
-        <v>-0.07946238780880771</v>
+        <v>-0.2490312686603539</v>
       </c>
       <c r="F58">
-        <v>0.4895938397997383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.08061094151549054</v>
+      </c>
+      <c r="G58">
+        <v>-0.7993886843344654</v>
+      </c>
+      <c r="H58">
+        <v>-0.402405537730892</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0526633149902393</v>
+        <v>0.187012424041359</v>
       </c>
       <c r="C59">
-        <v>0.02827498169207207</v>
+        <v>0.00691926941209093</v>
       </c>
       <c r="D59">
-        <v>0.1566123199994782</v>
+        <v>-0.2004461718814324</v>
       </c>
       <c r="E59">
-        <v>0.1022521607839814</v>
+        <v>-0.005313824292059193</v>
       </c>
       <c r="F59">
-        <v>0.08385422309204309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.001342977715844242</v>
+      </c>
+      <c r="G59">
+        <v>-0.01702718102968321</v>
+      </c>
+      <c r="H59">
+        <v>0.02388130279818274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1323277605391128</v>
+        <v>0.2049926198458294</v>
       </c>
       <c r="C60">
-        <v>0.1158324386428214</v>
+        <v>0.02279495185984375</v>
       </c>
       <c r="D60">
-        <v>-0.006161784602406351</v>
+        <v>0.03565923903997534</v>
       </c>
       <c r="E60">
-        <v>0.03431518316165716</v>
+        <v>-0.06005213852993201</v>
       </c>
       <c r="F60">
-        <v>0.1785398475588698</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.06614849150512067</v>
+      </c>
+      <c r="G60">
+        <v>-0.03123448997797994</v>
+      </c>
+      <c r="H60">
+        <v>0.3644114406425912</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02133675734798848</v>
+        <v>0.01779345519542881</v>
       </c>
       <c r="C61">
-        <v>0.01084919434365466</v>
+        <v>0.007826112524581387</v>
       </c>
       <c r="D61">
-        <v>-0.03616486562286664</v>
+        <v>0.05800010330580855</v>
       </c>
       <c r="E61">
-        <v>-0.02604333868815455</v>
+        <v>0.002021586462375343</v>
       </c>
       <c r="F61">
-        <v>0.01825230505181473</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02074423372710228</v>
+      </c>
+      <c r="G61">
+        <v>-0.02446498122950105</v>
+      </c>
+      <c r="H61">
+        <v>0.0560053238730002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01276229351320919</v>
+        <v>0.009475474205739602</v>
       </c>
       <c r="C63">
-        <v>0.005895655184680599</v>
+        <v>-0.002754704212211252</v>
       </c>
       <c r="D63">
-        <v>-0.028803889390038</v>
+        <v>0.0247827993938641</v>
       </c>
       <c r="E63">
-        <v>-0.02062644477039039</v>
+        <v>0.006377751685074408</v>
       </c>
       <c r="F63">
-        <v>0.00626813102177262</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.009677321090625399</v>
+      </c>
+      <c r="G63">
+        <v>-0.01609540470439208</v>
+      </c>
+      <c r="H63">
+        <v>0.0147140457379437</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03496630823434854</v>
+        <v>0.03507563117632839</v>
       </c>
       <c r="C64">
-        <v>0.003447001003888091</v>
+        <v>0.006893811239939205</v>
       </c>
       <c r="D64">
-        <v>-0.02810308624102069</v>
+        <v>0.04416695744339907</v>
       </c>
       <c r="E64">
-        <v>-0.03294851962334214</v>
+        <v>0.01163498198975213</v>
       </c>
       <c r="F64">
-        <v>0.02643357462671393</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.002219563696425113</v>
+      </c>
+      <c r="G64">
+        <v>-0.005154767099382005</v>
+      </c>
+      <c r="H64">
+        <v>0.04456120375632077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03739881851863795</v>
+        <v>0.0407800784579985</v>
       </c>
       <c r="C65">
-        <v>0.01423315819272719</v>
+        <v>-3.704610710653117e-05</v>
       </c>
       <c r="D65">
-        <v>-0.0217891148655078</v>
+        <v>0.07134774228239667</v>
       </c>
       <c r="E65">
-        <v>-0.02749025372318622</v>
+        <v>0.006449027174375026</v>
       </c>
       <c r="F65">
-        <v>0.006994423005223492</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03965339524131455</v>
+      </c>
+      <c r="G65">
+        <v>0.001410900867921372</v>
+      </c>
+      <c r="H65">
+        <v>0.07160870273932765</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03249195434489387</v>
+        <v>0.01939246449404486</v>
       </c>
       <c r="C66">
-        <v>0.03040883936927539</v>
+        <v>0.0110291642172251</v>
       </c>
       <c r="D66">
-        <v>-0.04804920627648589</v>
+        <v>0.1137653427877664</v>
       </c>
       <c r="E66">
-        <v>-0.06251253624786898</v>
+        <v>-0.009256023706283589</v>
       </c>
       <c r="F66">
-        <v>0.03220462527544863</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03926354113706947</v>
+      </c>
+      <c r="G66">
+        <v>-0.03545297881789417</v>
+      </c>
+      <c r="H66">
+        <v>0.07993843407382156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01792792116940187</v>
+        <v>0.04768653623561371</v>
       </c>
       <c r="C67">
-        <v>0.01546134502254097</v>
+        <v>0.01649618801596236</v>
       </c>
       <c r="D67">
-        <v>0.005833837982026297</v>
+        <v>0.01991171337539352</v>
       </c>
       <c r="E67">
-        <v>0.01710658406781494</v>
+        <v>-0.002522541958801167</v>
       </c>
       <c r="F67">
-        <v>0.025266414599047</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.02019984775530033</v>
+      </c>
+      <c r="G67">
+        <v>-0.01338404139058966</v>
+      </c>
+      <c r="H67">
+        <v>0.04001938227269646</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0672367763541571</v>
+        <v>0.1857436042092824</v>
       </c>
       <c r="C68">
-        <v>0.02436773256283133</v>
+        <v>-0.01578684887730637</v>
       </c>
       <c r="D68">
-        <v>0.1693342019808385</v>
+        <v>-0.2219452860645301</v>
       </c>
       <c r="E68">
-        <v>0.1114070790680586</v>
+        <v>-0.005537121584915279</v>
       </c>
       <c r="F68">
-        <v>0.07408223484165075</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.03966356662899585</v>
+      </c>
+      <c r="G68">
+        <v>-0.02763456222863045</v>
+      </c>
+      <c r="H68">
+        <v>-0.05294666458862751</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06021426792432091</v>
+        <v>0.06026134547671705</v>
       </c>
       <c r="C69">
-        <v>0.0385266476176395</v>
+        <v>0.02514102506728752</v>
       </c>
       <c r="D69">
-        <v>-0.004263913154903547</v>
+        <v>0.05140539125698913</v>
       </c>
       <c r="E69">
-        <v>-0.04172546434314502</v>
+        <v>0.003451062187823865</v>
       </c>
       <c r="F69">
-        <v>0.007505228614542588</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02760545067215002</v>
+      </c>
+      <c r="G69">
+        <v>0.009277446495549194</v>
+      </c>
+      <c r="H69">
+        <v>0.01134349991386116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06928370041913708</v>
+        <v>0.168555792484993</v>
       </c>
       <c r="C71">
-        <v>0.03161106254865056</v>
+        <v>-0.004714751080282549</v>
       </c>
       <c r="D71">
-        <v>0.1670695521862039</v>
+        <v>-0.1798047473687427</v>
       </c>
       <c r="E71">
-        <v>0.1614450241698352</v>
+        <v>-0.01165018377115947</v>
       </c>
       <c r="F71">
-        <v>0.07282848077782257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04994180691473691</v>
+      </c>
+      <c r="G71">
+        <v>-0.03309678630610458</v>
+      </c>
+      <c r="H71">
+        <v>-0.02290963766056051</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1002062656630205</v>
+        <v>0.07002833904881489</v>
       </c>
       <c r="C72">
-        <v>0.07302029541516078</v>
+        <v>0.03281892660161907</v>
       </c>
       <c r="D72">
-        <v>-0.01323606794323743</v>
+        <v>0.08745818863804782</v>
       </c>
       <c r="E72">
-        <v>-0.07791541098216424</v>
+        <v>-0.01480900490908121</v>
       </c>
       <c r="F72">
-        <v>0.06801885721087068</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0682465814776171</v>
+      </c>
+      <c r="G72">
+        <v>-0.0193051147906195</v>
+      </c>
+      <c r="H72">
+        <v>0.1198580360554592</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1729318661661669</v>
+        <v>0.2686197902976272</v>
       </c>
       <c r="C73">
-        <v>0.1877931615822333</v>
+        <v>0.03305468151340617</v>
       </c>
       <c r="D73">
-        <v>0.01308309241988222</v>
+        <v>0.1091462537437107</v>
       </c>
       <c r="E73">
-        <v>0.0895344886193854</v>
+        <v>-0.1046508025153484</v>
       </c>
       <c r="F73">
-        <v>0.2287611324529817</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.08089448120704523</v>
+      </c>
+      <c r="G73">
+        <v>-0.04282307003239028</v>
+      </c>
+      <c r="H73">
+        <v>0.4672641778384025</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.120156410899664</v>
+        <v>0.1113401237117684</v>
       </c>
       <c r="C74">
-        <v>0.06962402591531741</v>
+        <v>0.04463729452988069</v>
       </c>
       <c r="D74">
-        <v>-0.002475751044070159</v>
+        <v>0.1209926196345238</v>
       </c>
       <c r="E74">
-        <v>-0.05388721185309077</v>
+        <v>0.01444474178748685</v>
       </c>
       <c r="F74">
-        <v>-0.09030325633236534</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.03824408356119813</v>
+      </c>
+      <c r="G74">
+        <v>0.05499358405159927</v>
+      </c>
+      <c r="H74">
+        <v>-0.02382991198890191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2081370298345318</v>
+        <v>0.2112324918239978</v>
       </c>
       <c r="C75">
-        <v>0.1391561141363951</v>
+        <v>0.08163646512622927</v>
       </c>
       <c r="D75">
-        <v>0.0453031766588454</v>
+        <v>0.1888685541065474</v>
       </c>
       <c r="E75">
-        <v>-0.1434073655442896</v>
+        <v>0.007618548177422258</v>
       </c>
       <c r="F75">
-        <v>-0.1065956283178351</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.08974975759039995</v>
+      </c>
+      <c r="G75">
+        <v>0.1161978022453283</v>
+      </c>
+      <c r="H75">
+        <v>-0.1349765075261786</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2575397283645339</v>
+        <v>0.1733664218230289</v>
       </c>
       <c r="C76">
-        <v>0.1210414288438175</v>
+        <v>0.0753467436972958</v>
       </c>
       <c r="D76">
-        <v>0.04001593547286308</v>
+        <v>0.1855880748550094</v>
       </c>
       <c r="E76">
-        <v>-0.1808737554400924</v>
+        <v>0.05080719499466944</v>
       </c>
       <c r="F76">
-        <v>-0.2004034777673919</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.08235394623336519</v>
+      </c>
+      <c r="G76">
+        <v>0.113839127877123</v>
+      </c>
+      <c r="H76">
+        <v>-0.1170577694459078</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1000536635164381</v>
+        <v>0.0618675110390096</v>
       </c>
       <c r="C77">
-        <v>0.07594864123159036</v>
+        <v>0.007181183551494645</v>
       </c>
       <c r="D77">
-        <v>-0.1321534410890156</v>
+        <v>0.08637063785487704</v>
       </c>
       <c r="E77">
-        <v>-0.02101888155087965</v>
+        <v>-0.01936833640081594</v>
       </c>
       <c r="F77">
-        <v>0.1428652060998407</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01917482659566037</v>
+      </c>
+      <c r="G77">
+        <v>-0.08102114076624847</v>
+      </c>
+      <c r="H77">
+        <v>0.02247924136045856</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06764061461284107</v>
+        <v>0.03406631679023302</v>
       </c>
       <c r="C78">
-        <v>0.03507947375363123</v>
+        <v>0.009930593946813884</v>
       </c>
       <c r="D78">
-        <v>-0.09240657171907359</v>
+        <v>0.07198592380074098</v>
       </c>
       <c r="E78">
-        <v>-0.05393997620271883</v>
+        <v>0.002505903255349491</v>
       </c>
       <c r="F78">
-        <v>0.08794382170204101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01674184305388248</v>
+      </c>
+      <c r="G78">
+        <v>-0.06704734507215301</v>
+      </c>
+      <c r="H78">
+        <v>0.09017358606437421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5664511575197153</v>
+        <v>0.1185261833123863</v>
       </c>
       <c r="C80">
-        <v>-0.804298636943268</v>
+        <v>0.02435852836253562</v>
       </c>
       <c r="D80">
-        <v>-0.07770676294487851</v>
+        <v>0.0977563042210669</v>
       </c>
       <c r="E80">
-        <v>0.03397367751523916</v>
+        <v>0.9135426961625162</v>
       </c>
       <c r="F80">
-        <v>0.05096850049402794</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.265592623208384</v>
+      </c>
+      <c r="G80">
+        <v>-0.1925637040493992</v>
+      </c>
+      <c r="H80">
+        <v>0.0235917435241759</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1666070019306838</v>
+        <v>0.1407566880211878</v>
       </c>
       <c r="C81">
-        <v>0.09433645678092971</v>
+        <v>0.05313313971206034</v>
       </c>
       <c r="D81">
-        <v>0.04271319725217185</v>
+        <v>0.1239912759939139</v>
       </c>
       <c r="E81">
-        <v>-0.1179361744669278</v>
+        <v>0.01843753496469819</v>
       </c>
       <c r="F81">
-        <v>-0.1100969369280391</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.0584955035595246</v>
+      </c>
+      <c r="G81">
+        <v>0.07534060604971111</v>
+      </c>
+      <c r="H81">
+        <v>-0.07769384209503404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03166789358117186</v>
+        <v>0.03107708626590443</v>
       </c>
       <c r="C83">
-        <v>0.02621424830641002</v>
+        <v>0.003749984608182082</v>
       </c>
       <c r="D83">
-        <v>-0.03301990678199099</v>
+        <v>0.02772137655806788</v>
       </c>
       <c r="E83">
-        <v>-0.001742678117767321</v>
+        <v>-0.007247547964379208</v>
       </c>
       <c r="F83">
-        <v>0.06247226701945115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.005263521629253747</v>
+      </c>
+      <c r="G83">
+        <v>-0.0431453649472433</v>
+      </c>
+      <c r="H83">
+        <v>0.04208660974507027</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2305188916747134</v>
+        <v>0.1996579314488222</v>
       </c>
       <c r="C85">
-        <v>0.1365583144598806</v>
+        <v>0.0665869228876546</v>
       </c>
       <c r="D85">
-        <v>0.02928700342440636</v>
+        <v>0.1912573858898656</v>
       </c>
       <c r="E85">
-        <v>-0.1332682809242996</v>
+        <v>0.006593185862862153</v>
       </c>
       <c r="F85">
-        <v>-0.1476280144620483</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.07513095459992916</v>
+      </c>
+      <c r="G85">
+        <v>0.1395274632395034</v>
+      </c>
+      <c r="H85">
+        <v>-0.06238303571796913</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007575600871056242</v>
+        <v>0.01789076047825999</v>
       </c>
       <c r="C86">
-        <v>-0.0006205670957953035</v>
+        <v>0.001051507139202699</v>
       </c>
       <c r="D86">
-        <v>-0.06768686032787796</v>
+        <v>0.04277809366467931</v>
       </c>
       <c r="E86">
-        <v>-0.01790819298545781</v>
+        <v>0.002923868008097025</v>
       </c>
       <c r="F86">
-        <v>0.05879975679092283</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.007527667569391498</v>
+      </c>
+      <c r="G86">
+        <v>-0.05135278864768882</v>
+      </c>
+      <c r="H86">
+        <v>0.09106026901319222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03651482667160176</v>
+        <v>0.01894547665343315</v>
       </c>
       <c r="C87">
-        <v>0.01987531835326497</v>
+        <v>0.00110803527406934</v>
       </c>
       <c r="D87">
-        <v>-0.03203748530304418</v>
+        <v>0.04798743438427061</v>
       </c>
       <c r="E87">
-        <v>-0.01267531187972593</v>
+        <v>-0.003356485986326998</v>
       </c>
       <c r="F87">
-        <v>0.1094322965150282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.007054647498407117</v>
+      </c>
+      <c r="G87">
+        <v>-0.08468716052134155</v>
+      </c>
+      <c r="H87">
+        <v>0.07479609643420129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.02044553352388308</v>
+        <v>0.03885729334929675</v>
       </c>
       <c r="C88">
-        <v>-0.002564584781705525</v>
+        <v>-0.01254178590873811</v>
       </c>
       <c r="D88">
-        <v>0.009899532405866447</v>
+        <v>0.02441229026132129</v>
       </c>
       <c r="E88">
-        <v>-0.01479232015419792</v>
+        <v>0.0168894135754543</v>
       </c>
       <c r="F88">
-        <v>-0.01424327819542147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01600190408095495</v>
+      </c>
+      <c r="G88">
+        <v>0.0009419933383911702</v>
+      </c>
+      <c r="H88">
+        <v>0.01562301103397928</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09816132606343114</v>
+        <v>0.291727753226286</v>
       </c>
       <c r="C89">
-        <v>0.05208667659659311</v>
+        <v>-0.01038395678907569</v>
       </c>
       <c r="D89">
-        <v>0.2797738856742019</v>
+        <v>-0.3217956886218323</v>
       </c>
       <c r="E89">
-        <v>0.1863567775762691</v>
+        <v>-0.01108935858347676</v>
       </c>
       <c r="F89">
-        <v>0.1116885641420367</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02131876988692694</v>
+      </c>
+      <c r="G89">
+        <v>0.01872923796824728</v>
+      </c>
+      <c r="H89">
+        <v>0.01261171298237823</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08587753182163574</v>
+        <v>0.2381701645646226</v>
       </c>
       <c r="C90">
-        <v>0.02050422987243868</v>
+        <v>-0.009947126628497222</v>
       </c>
       <c r="D90">
-        <v>0.3030221146451209</v>
+        <v>-0.2900907026824966</v>
       </c>
       <c r="E90">
-        <v>0.2089949328128294</v>
+        <v>-0.0004507410252407992</v>
       </c>
       <c r="F90">
-        <v>0.04952010316474495</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05401194958095027</v>
+      </c>
+      <c r="G90">
+        <v>0.003166987109897929</v>
+      </c>
+      <c r="H90">
+        <v>-0.0555881787250885</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2624709602804461</v>
+        <v>0.2123758330853643</v>
       </c>
       <c r="C91">
-        <v>0.1750059269343875</v>
+        <v>0.07875410663871135</v>
       </c>
       <c r="D91">
-        <v>0.02864870405496292</v>
+        <v>0.1766165491674457</v>
       </c>
       <c r="E91">
-        <v>-0.1383431398532868</v>
+        <v>0.001212838392074989</v>
       </c>
       <c r="F91">
-        <v>-0.2376501560570966</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.07728423605330309</v>
+      </c>
+      <c r="G91">
+        <v>0.1429102830646982</v>
+      </c>
+      <c r="H91">
+        <v>-0.1543472043424911</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1502262576697457</v>
+        <v>0.2693545527710272</v>
       </c>
       <c r="C92">
-        <v>0.06563804429869267</v>
+        <v>0.05077682606005165</v>
       </c>
       <c r="D92">
-        <v>0.4219783042213207</v>
+        <v>-0.2108821732606012</v>
       </c>
       <c r="E92">
-        <v>0.08807353675182404</v>
+        <v>0.01414587223239677</v>
       </c>
       <c r="F92">
-        <v>-0.06156713564236283</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.01644195247548615</v>
+      </c>
+      <c r="G92">
+        <v>-0.01545657788310819</v>
+      </c>
+      <c r="H92">
+        <v>-0.135194076149915</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08225464726831083</v>
+        <v>0.2675348142500162</v>
       </c>
       <c r="C93">
-        <v>0.05865587453773093</v>
+        <v>-0.0006612923170187692</v>
       </c>
       <c r="D93">
-        <v>0.3614975615338871</v>
+        <v>-0.2992684170662821</v>
       </c>
       <c r="E93">
-        <v>0.2787313101471016</v>
+        <v>-0.03074865000169097</v>
       </c>
       <c r="F93">
-        <v>0.05417885014045287</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.05079536561554941</v>
+      </c>
+      <c r="G93">
+        <v>0.01136473633193253</v>
+      </c>
+      <c r="H93">
+        <v>0.009067408641181279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2545823088350924</v>
+        <v>0.2590191627110531</v>
       </c>
       <c r="C94">
-        <v>0.1759925268318561</v>
+        <v>0.073546731641995</v>
       </c>
       <c r="D94">
-        <v>0.07753611416024836</v>
+        <v>0.184538703595622</v>
       </c>
       <c r="E94">
-        <v>-0.2248521989711385</v>
+        <v>0.002966235173640085</v>
       </c>
       <c r="F94">
-        <v>-0.1798544491613699</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1806785235205702</v>
+      </c>
+      <c r="G94">
+        <v>0.2535686658878836</v>
+      </c>
+      <c r="H94">
+        <v>-0.360303142620557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0202543704935077</v>
+        <v>0.04610099996355588</v>
       </c>
       <c r="C95">
-        <v>0.08739239092355168</v>
+        <v>0.0280245162966847</v>
       </c>
       <c r="D95">
-        <v>-0.0635827000325406</v>
+        <v>0.09233485742531931</v>
       </c>
       <c r="E95">
-        <v>-0.02366119801906356</v>
+        <v>-0.08248342675942116</v>
       </c>
       <c r="F95">
-        <v>0.01143751263920323</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.00381960055255935</v>
+      </c>
+      <c r="G95">
+        <v>-0.04095357949172791</v>
+      </c>
+      <c r="H95">
+        <v>0.04945203108286566</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1345463191949897</v>
+        <v>0.185380281760048</v>
       </c>
       <c r="C98">
-        <v>0.1197797558702568</v>
+        <v>0.04894956439869745</v>
       </c>
       <c r="D98">
-        <v>0.01002267565312955</v>
+        <v>0.05088144295841772</v>
       </c>
       <c r="E98">
-        <v>0.07997724868897738</v>
+        <v>-0.07132451899073222</v>
       </c>
       <c r="F98">
-        <v>0.1677459197317015</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.02146511188825009</v>
+      </c>
+      <c r="G98">
+        <v>-0.08309335302438632</v>
+      </c>
+      <c r="H98">
+        <v>0.329182477106582</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01042734249082958</v>
+        <v>0.01372326750469766</v>
       </c>
       <c r="C101">
-        <v>-0.001148662153938441</v>
+        <v>-0.001237015362857003</v>
       </c>
       <c r="D101">
-        <v>-0.05830551088252896</v>
+        <v>0.01835097126742175</v>
       </c>
       <c r="E101">
-        <v>-0.06095845135698741</v>
+        <v>0.00263050986488037</v>
       </c>
       <c r="F101">
-        <v>0.1650149729160614</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.01506648954327718</v>
+      </c>
+      <c r="G101">
+        <v>-0.1011801778643606</v>
+      </c>
+      <c r="H101">
+        <v>-0.01915799343158597</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1062279885604739</v>
+        <v>0.098336590133385</v>
       </c>
       <c r="C102">
-        <v>0.06231174136628511</v>
+        <v>0.02570181364051749</v>
       </c>
       <c r="D102">
-        <v>0.01008761431139572</v>
+        <v>0.09354725300511167</v>
       </c>
       <c r="E102">
-        <v>-0.07695293676696248</v>
+        <v>0.007165247443016834</v>
       </c>
       <c r="F102">
-        <v>-0.08911240222691724</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.04518398762506887</v>
+      </c>
+      <c r="G102">
+        <v>0.06727379093314813</v>
+      </c>
+      <c r="H102">
+        <v>-0.05344965259004377</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04244256710812434</v>
+        <v>0.01375023905871522</v>
       </c>
       <c r="C103">
-        <v>0.01080758605789515</v>
+        <v>0.004861883057623505</v>
       </c>
       <c r="D103">
-        <v>-0.0116625297945697</v>
+        <v>0.0175716719277986</v>
       </c>
       <c r="E103">
-        <v>-0.04269575183981641</v>
+        <v>0.01300056710744184</v>
       </c>
       <c r="F103">
-        <v>-0.00419288213102076</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.005138576806826375</v>
+      </c>
+      <c r="G103">
+        <v>-0.003377487774705468</v>
+      </c>
+      <c r="H103">
+        <v>-0.01196427317480879</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1436598530994464</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9694312406601344</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1044665187372556</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03367124453768219</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1267053656983189</v>
+      </c>
+      <c r="G104">
+        <v>0.009039184817983284</v>
+      </c>
+      <c r="H104">
+        <v>-0.04816187799849386</v>
       </c>
     </row>
   </sheetData>
